--- a/RBM_ideal.xlsx
+++ b/RBM_ideal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertorojas-laguna1/Desktop/Jaakko_Vaccines/Jaakko_Vaccines/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertorojas-laguna1/Desktop/RA_Lothar/Jaakko_Vaccines/Jaakko_Vaccines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{968B8BD3-8E3C-4143-B76B-86E71D340534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B87DC3-6B03-E84E-B7FA-4B3028F146FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D46B95FB-BF0C-4A4F-9702-33A9C0658203}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{D46B95FB-BF0C-4A4F-9702-33A9C0658203}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -48,63 +48,6 @@
     <t>indicator</t>
   </si>
   <si>
-    <t>1. There is a documented, approved and binding RBM Policy within the government:</t>
-  </si>
-  <si>
-    <t>2. There are laws/regulations/norms* recognizing M&amp;E activities across the government</t>
-  </si>
-  <si>
-    <t>3. There are guidelines that establish the rules and processes to perform monitoring activities:</t>
-  </si>
-  <si>
-    <t>4. There are guidelines that establish the rules and processes to perform evaluation activities:</t>
-  </si>
-  <si>
-    <t>5. There are guidelines that establish the rules and processes to address and use of M&amp;E results</t>
-  </si>
-  <si>
-    <t>6. There are actions towards building an enabling environment</t>
-  </si>
-  <si>
-    <t>7. There is a Results Oriented National Plan defined for a given period in the country:</t>
-  </si>
-  <si>
-    <t>8. There is a national budgeting strategy for a given period in the country:</t>
-  </si>
-  <si>
-    <t>9. There are operative handbooks to implement the monitoring functions (i.e. Logic Framework):</t>
-  </si>
-  <si>
-    <t>10. There are operative handbooks that establish specific steps to develop each stage of the evaluation function:</t>
-  </si>
-  <si>
-    <t>11. There is an operating and functioning M&amp;E system at the national or/and subnational levels:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12. There is a defined human resources structure for M&amp;E activities: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13. There are sufficient private and public entities providing M&amp;E services, including training, to the public sector. </t>
-  </si>
-  <si>
-    <t>14. There are skilled personnel in government with technical capacity and competencies to conduct planning and budgeting for results:</t>
-  </si>
-  <si>
-    <t>15. There are skilled personnel in government with technical capacity and competencies to conduct monitoring activities:</t>
-  </si>
-  <si>
-    <t>16. There are skilled personnel in government with technical capacity and competencies to conduct evaluations and evaluation activities:</t>
-  </si>
-  <si>
-    <t>17. RBM documents are publicly available for consultation</t>
-  </si>
-  <si>
-    <t>18. There is an enabling environment for the use of M&amp;E results:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19. M&amp;E results are systematically included in the planning of government programs, policies, and projects (interventions): </t>
-  </si>
-  <si>
     <t xml:space="preserve"> It is relevant across the government at all levels</t>
   </si>
   <si>
@@ -407,6 +350,63 @@
   </si>
   <si>
     <t xml:space="preserve"> The M&amp;E results are used to define the MDAs budget </t>
+  </si>
+  <si>
+    <t>There are laws/regulations/norms* recognizing M&amp;E activities across the government</t>
+  </si>
+  <si>
+    <t>There are guidelines that establish the rules and processes to address and use of M&amp;E results</t>
+  </si>
+  <si>
+    <t>There are actions towards building an enabling environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are sufficient private and public entities providing M&amp;E services, including training, to the public sector. </t>
+  </si>
+  <si>
+    <t>There are skilled personnel in government with technical capacity and competencies to conduct monitoring activities</t>
+  </si>
+  <si>
+    <t>There is a documented, approved and binding RBM Policy within the government</t>
+  </si>
+  <si>
+    <t>There are guidelines that establish the rules and processes to perform monitoring activities</t>
+  </si>
+  <si>
+    <t>There are guidelines that establish the rules and processes to perform evaluation activities</t>
+  </si>
+  <si>
+    <t>There is a Results Oriented National Plan defined for a given period in the country</t>
+  </si>
+  <si>
+    <t>There is a national budgeting strategy for a given period in the country</t>
+  </si>
+  <si>
+    <t>There are operative handbooks to implement the monitoring functions (i.e. Logic Framework)</t>
+  </si>
+  <si>
+    <t>There are operative handbooks that establish specific steps to develop each stage of the evaluation function</t>
+  </si>
+  <si>
+    <t>11. There is an operating and functioning M&amp;E system at the national or/and subnational levels</t>
+  </si>
+  <si>
+    <t>There is a defined human resources structure for M&amp;E activities</t>
+  </si>
+  <si>
+    <t>There are skilled personnel in government with technical capacity and competencies to conduct planning and budgeting for results</t>
+  </si>
+  <si>
+    <t>There are skilled personnel in government with technical capacity and competencies to conduct evaluations and evaluation activities</t>
+  </si>
+  <si>
+    <t>RBM documents are publicly available for consultation</t>
+  </si>
+  <si>
+    <t>There is an enabling environment for the use of M&amp;E results</t>
+  </si>
+  <si>
+    <t>M&amp;E results are systematically included in the planning of government programs, policies, and projects (interventions)</t>
   </si>
 </sst>
 </file>
@@ -900,7 +900,7 @@
   <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -948,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.2">
@@ -962,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.2">
@@ -976,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.2">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.2">
@@ -1004,7 +1004,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.2">
@@ -1018,7 +1018,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.2">
@@ -1032,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.2">
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.2">
@@ -1074,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.2">
@@ -1088,7 +1088,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.2">
@@ -1102,7 +1102,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1116,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.2">
@@ -1130,7 +1130,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="56" x14ac:dyDescent="0.2">
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -1172,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1186,7 +1186,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1200,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1214,7 +1214,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1228,7 +1228,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1284,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1298,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1312,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1326,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="56" x14ac:dyDescent="0.2">
@@ -1340,7 +1340,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -1354,7 +1354,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -1368,7 +1368,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -1382,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1410,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1424,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1438,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="56" x14ac:dyDescent="0.2">
@@ -1452,10 +1452,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1494,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1508,7 +1508,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1522,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -1536,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1564,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1578,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1592,7 +1592,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1606,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1620,7 +1620,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1634,7 +1634,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1648,7 +1648,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1662,7 +1662,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1704,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1718,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -1732,7 +1732,7 @@
         <v>4</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1746,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1760,7 +1760,7 @@
         <v>6</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1774,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1788,7 +1788,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1830,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1844,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -1858,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1900,7 +1900,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -1914,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1928,7 +1928,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -1970,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1984,7 +1984,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -1998,7 +1998,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2012,7 +2012,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2026,7 +2026,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2040,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2082,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2096,7 +2096,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -2110,7 +2110,7 @@
         <v>4</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2138,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -2152,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2194,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="56" x14ac:dyDescent="0.2">
@@ -2208,7 +2208,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2222,7 +2222,7 @@
         <v>4</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2264,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2278,7 +2278,7 @@
         <v>3</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="56" x14ac:dyDescent="0.2">
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="56" x14ac:dyDescent="0.2">
@@ -2320,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -2334,7 +2334,7 @@
         <v>3</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2348,7 +2348,7 @@
         <v>4</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2390,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -2404,7 +2404,7 @@
         <v>3</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2418,7 +2418,7 @@
         <v>4</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -2432,7 +2432,7 @@
         <v>5</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="42" x14ac:dyDescent="0.2">
@@ -2446,10 +2446,10 @@
         <v>6</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>4</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2474,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2488,10 +2488,10 @@
         <v>2</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="42" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="28" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>4</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2530,7 +2530,7 @@
         <v>2</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2544,7 +2544,7 @@
         <v>3</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2558,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2572,7 +2572,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2586,7 +2586,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2600,7 +2600,7 @@
         <v>7</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="28" x14ac:dyDescent="0.2">
@@ -2614,7 +2614,7 @@
         <v>8</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2628,7 +2628,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2642,7 +2642,7 @@
         <v>10</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
